--- a/medicine/Mort/Terrorisme_en_1950/Terrorisme_en_1950.xlsx
+++ b/medicine/Mort/Terrorisme_en_1950/Terrorisme_en_1950.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,20 +520,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-17 mars: Massacre de Ma'aleh Aqrabbim, onze morts et trois blessés.
-Avril
-4 avril: Attentat de l’école n° 20 de Gîsca, un enseignant fait exploser une bombe dans une salle de classe, 24 personnes dont l'auteur perdront la vie.
-Mai
-Juin
-Juillet
-Août
-Septembre
-Octobre
-Novembre
-Décembre</t>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 mars: Massacre de Ma'aleh Aqrabbim, onze morts et trois blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1950</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4 avril: Attentat de l’école n° 20 de Gîsca, un enseignant fait exploser une bombe dans une salle de classe, 24 personnes dont l'auteur perdront la vie.</t>
         </is>
       </c>
     </row>
